--- a/Service Now Memo.xlsx
+++ b/Service Now Memo.xlsx
@@ -1,14 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习资料\Service Now\Service_Now_Memo\Japanese_Study\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB2DE78-CB0E-4A1A-930D-1CB5E42202FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="30480" yWindow="1920" windowWidth="26460" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Glossory" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$P$2:$Q$2</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -18,9 +28,79 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+  <si>
+    <t>1.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bob.HR_Support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jane.HR_Support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属Goup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HR Systems Support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">HR System
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追加Role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impersonator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HR Admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service Operation Workspace:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>when impersonate some user, it comes to the image below.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Employee Center Portal:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all-&gt;employee center</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +108,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -45,15 +147,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -66,6 +239,251 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>201101</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76613</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25ED459C-17C8-127D-C4D5-5A67E64B07F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="371475"/>
+          <a:ext cx="7706801" cy="2962688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>572532</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171681</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BA4AA92-A2D8-C309-F496-92022D867CD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="3581400"/>
+          <a:ext cx="7392432" cy="1657581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>83857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61565239-8BA1-2AA6-B21D-4B02C374628B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723901" y="6153150"/>
+          <a:ext cx="7353300" cy="4789207"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>218924</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>92211</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BCCCAF5-14B6-E607-A18B-C5D8D8DD11F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="904875"/>
+          <a:ext cx="12563324" cy="5521461"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>178913</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>49418</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{617A289A-BA2F-3A86-899F-A68CEF9693CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7781925"/>
+          <a:ext cx="12523313" cy="6021593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +748,130 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="14" max="14" width="15.125" customWidth="1"/>
+    <col min="15" max="15" width="17.625" customWidth="1"/>
+    <col min="16" max="16" width="12.75" customWidth="1"/>
+    <col min="17" max="18" width="20" customWidth="1"/>
+    <col min="19" max="19" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="N2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="N4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="P2:R2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7381EFC-C43B-4F92-B78C-0D4CB4184D74}">
+  <dimension ref="A4:E42"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="S46" sqref="S46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Service Now Memo.xlsx
+++ b/Service Now Memo.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习资料\Service Now\Service_Now_Memo\Japanese_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB2DE78-CB0E-4A1A-930D-1CB5E42202FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D2B367-D289-43D2-B33A-FDE058C55F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30480" yWindow="1920" windowWidth="26460" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26145" yWindow="4140" windowWidth="26460" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Glossory" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$P$2:$Q$2</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>1.2.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,6 +94,14 @@
   </si>
   <si>
     <t>all-&gt;employee center</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service Now Capabilities:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ServiceNow workflows:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -203,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -214,14 +223,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -479,6 +487,824 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>136820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE849A3F-EE54-C9F2-4425-AF8308E6B538}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="361951"/>
+          <a:ext cx="3038475" cy="2127544"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>162463</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152699</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{411466BB-D3C8-FAE4-6A19-B97868583A8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3162300" y="361950"/>
+          <a:ext cx="3858163" cy="2143424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19588</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152699</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{685A2C69-ABB8-6A55-04B1-49E38AF4B31D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7134225" y="361950"/>
+          <a:ext cx="3858163" cy="2143424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>260986</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D60E25A1-C7BF-9A54-C99D-DDE971331973}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11096626" y="371476"/>
+          <a:ext cx="2880360" cy="2133600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>582159</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38484</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0464D93-84CA-5FEA-9B2E-C2990ABB8869}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3438525"/>
+          <a:ext cx="8125959" cy="2753109"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>306087</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>143350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFFB7F06-F504-4DD6-9BE1-0D21AD3EED36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6877050"/>
+          <a:ext cx="9221487" cy="3400900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>509185</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D26519BD-32F7-A762-D4BD-8A6AAD095D02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10677525"/>
+          <a:ext cx="5995585" cy="5381625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>349611</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F99F58BC-65D0-48B5-F8B9-9E8836E6E304}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6172201" y="10677525"/>
+          <a:ext cx="4464410" cy="2200275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>172069</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45BCE4D1-C63F-0CCF-4DC4-A30C7ABB096B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10725150" y="10687051"/>
+          <a:ext cx="4762500" cy="4143993"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>20386</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85B63400-B56E-DFE2-CCE9-6C96D36C2BF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16287751"/>
+          <a:ext cx="6010275" cy="2373060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>174756</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C396EB79-34DC-BB25-4233-0AE251D3CF0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="19183351"/>
+          <a:ext cx="4419600" cy="3432305"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>184546</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87E7119D-FE88-60A9-59C3-446808D6326A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4524375" y="19164301"/>
+          <a:ext cx="4575571" cy="3486150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>635420</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E69C8E92-7DAC-8E0F-AD72-2C98E7CB1E8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9172575" y="19183350"/>
+          <a:ext cx="5178845" cy="3486149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>82467</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99DAD6C6-696E-FBB2-6C49-8CF2D3D724EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="23164801"/>
+          <a:ext cx="5086350" cy="3340016"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>151864</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F577E83C-6F29-9FB1-291C-168EA9EC4456}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486401" y="23164800"/>
+          <a:ext cx="4133850" cy="3228439"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>45803</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A443400-B502-B629-6109-9F5EB82EDB93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="26784300"/>
+          <a:ext cx="4905375" cy="2036528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>655053</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAF57D97-5A57-05FF-567B-109E724B124F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15563851" y="10572750"/>
+          <a:ext cx="5665202" cy="4267200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -771,12 +1597,12 @@
       <c r="O2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="9"/>
+      <c r="Q2" s="7"/>
       <c r="R2" s="8"/>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -842,7 +1668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7381EFC-C43B-4F92-B78C-0D4CB4184D74}">
   <dimension ref="A4:E42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A49" workbookViewId="0">
       <selection activeCell="S46" sqref="S46"/>
     </sheetView>
   </sheetViews>
@@ -874,4 +1700,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC974670-E283-4290-A945-EC35D4A8609D}">
+  <dimension ref="A18:C37"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="M73" sqref="M73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Service Now Memo.xlsx
+++ b/Service Now Memo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习资料\Service Now\Service_Now_Memo\Japanese_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D2B367-D289-43D2-B33A-FDE058C55F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0AD033-B50D-44E3-A95C-BC9CB0944146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26145" yWindow="4140" windowWidth="26460" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$P$2:$Q$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
